--- a/bid_ask_quotes.xlsx
+++ b/bid_ask_quotes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="56">
   <si>
     <t>ISIN</t>
   </si>
@@ -30,13 +30,163 @@
     <t>AskQty</t>
   </si>
   <si>
-    <t>NSE_EQ|INE342T07403</t>
+    <t>NSE_EQ|INE031A07AT4</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE033L07GQ0</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE020B07IG5</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE00QS24027</t>
   </si>
   <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>NSE_EQ|INE342T07445</t>
+    <t>NSE_EQ|INE033L07GO5</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE033L07IE2</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE00QS24035</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE020B07HP8</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE027E07BC8</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE031A07915</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE027E07AN7</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE033L07GN7</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE027E07AX6</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE039A07843</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE027E07AL1</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE020B07IE0</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE020B07IH3</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE020B07HT0</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE031A07881</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE031A07AO5</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE027E07BA2</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE027E07964</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE039A07801</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE020B07HS2</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE031A07AB2</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE033L07GT4</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE031A07865</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE020B07ID2</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE033L07GS6</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE039A07819</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE027E07AK3</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE033L07GR8</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE027E07BB0</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE027E07980</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE00QS24043</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE039A07850</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE020B07GZ9</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE027E07972</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE020B07GX4</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE020B07GH7</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE033L08270</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE027E07AY4</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE027E07AM9</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE027E07998</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE00QS24019</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE033L07GU2</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE031A07840</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE033L07GP2</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE020B07JU4</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE027E07AZ1</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE031A07972</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE031A07949</t>
   </si>
 </sst>
 </file>
@@ -399,15 +549,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -426,10 +574,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1020</v>
+        <v>1173.3900000000001</v>
       </c>
       <c r="C2">
-        <v>150</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -437,10 +585,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1025</v>
+        <v>1173.53</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -448,7 +596,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1030</v>
+        <v>1174.9000000000001</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -459,76 +607,2826 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1099</v>
+        <v>1175</v>
       </c>
       <c r="C5">
-        <v>200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
+      <c r="B6">
+        <v>1175.5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1042</v>
+        <v>1059.99</v>
       </c>
       <c r="C7">
-        <v>72</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>1240</v>
+        <v>1060</v>
       </c>
       <c r="C8">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>1249</v>
+        <v>1069</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
+      <c r="B10">
+        <v>1071</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>1100</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
+      <c r="B12">
+        <v>1208</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>1232.3900000000001</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>1232.49</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>1233</v>
+      </c>
+      <c r="C15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>1260</v>
+      </c>
+      <c r="C16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>251</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>252.95</v>
+      </c>
+      <c r="C18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>1000.75</v>
+      </c>
+      <c r="C22">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>1007.9</v>
+      </c>
+      <c r="C23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>1008</v>
+      </c>
+      <c r="C24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>258.89999999999998</v>
+      </c>
+      <c r="C32">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>258.97000000000003</v>
+      </c>
+      <c r="C33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>268</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>1185.5</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>1415</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42">
+        <v>1080</v>
+      </c>
+      <c r="C42">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43">
+        <v>1083</v>
+      </c>
+      <c r="C43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44">
+        <v>1083.8900000000001</v>
+      </c>
+      <c r="C44">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>1085</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46">
+        <v>1088</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47">
+        <v>1291</v>
+      </c>
+      <c r="C47">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52">
+        <v>1026</v>
+      </c>
+      <c r="C52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53">
+        <v>1027</v>
+      </c>
+      <c r="C53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54">
+        <v>1050</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55">
+        <v>1199.99</v>
+      </c>
+      <c r="C55">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67">
+        <v>1057.8</v>
+      </c>
+      <c r="C67">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68">
+        <v>1059.75</v>
+      </c>
+      <c r="C68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69">
+        <v>1110</v>
+      </c>
+      <c r="C69">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72">
+        <v>1069.95</v>
+      </c>
+      <c r="C72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73">
+        <v>1080</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74">
+        <v>1094.99</v>
+      </c>
+      <c r="C74">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75">
+        <v>1100</v>
+      </c>
+      <c r="C75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76">
+        <v>1145</v>
+      </c>
+      <c r="C76">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77">
+        <v>1800</v>
+      </c>
+      <c r="C77">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82">
+        <v>1374.7</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>20</v>
+      </c>
+      <c r="B83">
+        <v>1375</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>20</v>
+      </c>
+      <c r="B84">
+        <v>1375.5</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85">
+        <v>1375.9</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86">
+        <v>1376</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87">
+        <v>1489.9</v>
+      </c>
+      <c r="C87">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>22</v>
+      </c>
+      <c r="B92">
+        <v>1189.01</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>22</v>
+      </c>
+      <c r="B93">
+        <v>1284.9000000000001</v>
+      </c>
+      <c r="C93">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>22</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>22</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>22</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97">
+        <v>1155.51</v>
+      </c>
+      <c r="C97">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98">
+        <v>1159</v>
+      </c>
+      <c r="C98">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>23</v>
+      </c>
+      <c r="B99">
+        <v>1164.98</v>
+      </c>
+      <c r="C99">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100">
+        <v>1165</v>
+      </c>
+      <c r="C100">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>23</v>
+      </c>
+      <c r="B101">
+        <v>1168</v>
+      </c>
+      <c r="C101">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>24</v>
+      </c>
+      <c r="B102">
+        <v>1005</v>
+      </c>
+      <c r="C102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>24</v>
+      </c>
+      <c r="B103">
+        <v>1006</v>
+      </c>
+      <c r="C103">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>24</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>24</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>24</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>25</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>25</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>25</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>25</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>25</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>26</v>
+      </c>
+      <c r="B112">
+        <v>1081.81</v>
+      </c>
+      <c r="C112">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>26</v>
+      </c>
+      <c r="B113">
+        <v>1082</v>
+      </c>
+      <c r="C113">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>26</v>
+      </c>
+      <c r="B114">
+        <v>1084.4000000000001</v>
+      </c>
+      <c r="C114">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>26</v>
+      </c>
+      <c r="B115">
+        <v>1084.45</v>
+      </c>
+      <c r="C115">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>26</v>
+      </c>
+      <c r="B116">
+        <v>1087.5</v>
+      </c>
+      <c r="C116">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>27</v>
+      </c>
+      <c r="B117">
+        <v>1177.49</v>
+      </c>
+      <c r="C117">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>27</v>
+      </c>
+      <c r="B118">
+        <v>1177.5</v>
+      </c>
+      <c r="C118">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>27</v>
+      </c>
+      <c r="B119">
+        <v>1181</v>
+      </c>
+      <c r="C119">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>27</v>
+      </c>
+      <c r="B120">
+        <v>1182.99</v>
+      </c>
+      <c r="C120">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>27</v>
+      </c>
+      <c r="B121">
+        <v>1185</v>
+      </c>
+      <c r="C121">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>28</v>
+      </c>
+      <c r="B122">
+        <v>1333.7</v>
+      </c>
+      <c r="C122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>28</v>
+      </c>
+      <c r="B123">
+        <v>1334</v>
+      </c>
+      <c r="C123">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>28</v>
+      </c>
+      <c r="B124">
+        <v>1335</v>
+      </c>
+      <c r="C124">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>28</v>
+      </c>
+      <c r="B125">
+        <v>1339.9</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>28</v>
+      </c>
+      <c r="B126">
+        <v>1340</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>29</v>
+      </c>
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>29</v>
+      </c>
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>29</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>29</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>29</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>30</v>
+      </c>
+      <c r="B132">
+        <v>1114.79</v>
+      </c>
+      <c r="C132">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>30</v>
+      </c>
+      <c r="B133">
+        <v>1114.9000000000001</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>30</v>
+      </c>
+      <c r="B134">
+        <v>1115</v>
+      </c>
+      <c r="C134">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>30</v>
+      </c>
+      <c r="B135">
+        <v>1115.5</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>30</v>
+      </c>
+      <c r="B136">
+        <v>1116</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>31</v>
+      </c>
+      <c r="B137">
+        <v>1640.9</v>
+      </c>
+      <c r="C137">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>31</v>
+      </c>
+      <c r="B138">
+        <v>1640.91</v>
+      </c>
+      <c r="C138">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>31</v>
+      </c>
+      <c r="B139">
+        <v>1640.99</v>
+      </c>
+      <c r="C139">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>31</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>31</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>32</v>
+      </c>
+      <c r="B142">
+        <v>1040</v>
+      </c>
+      <c r="C142">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>32</v>
+      </c>
+      <c r="B143">
+        <v>1044</v>
+      </c>
+      <c r="C143">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>32</v>
+      </c>
+      <c r="B144">
+        <v>1100</v>
+      </c>
+      <c r="C144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>32</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>32</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>33</v>
+      </c>
+      <c r="B147">
+        <v>2525</v>
+      </c>
+      <c r="C147">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>33</v>
+      </c>
+      <c r="B148">
+        <v>2540</v>
+      </c>
+      <c r="C148">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>33</v>
+      </c>
+      <c r="B149">
+        <v>2543</v>
+      </c>
+      <c r="C149">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>33</v>
+      </c>
+      <c r="B150">
+        <v>2544</v>
+      </c>
+      <c r="C150">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>33</v>
+      </c>
+      <c r="B151">
+        <v>2580</v>
+      </c>
+      <c r="C151">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>34</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>34</v>
+      </c>
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>34</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>34</v>
+      </c>
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>34</v>
+      </c>
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>35</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>35</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>35</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>35</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>35</v>
+      </c>
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>36</v>
+      </c>
+      <c r="B162">
+        <v>1072</v>
+      </c>
+      <c r="C162">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>36</v>
+      </c>
+      <c r="B163" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>36</v>
+      </c>
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>36</v>
+      </c>
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>36</v>
+      </c>
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>37</v>
+      </c>
+      <c r="B167" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>37</v>
+      </c>
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>37</v>
+      </c>
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>37</v>
+      </c>
+      <c r="B170" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>37</v>
+      </c>
+      <c r="B171" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>38</v>
+      </c>
+      <c r="B172">
+        <v>251.5</v>
+      </c>
+      <c r="C172">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>38</v>
+      </c>
+      <c r="B173">
+        <v>251.9</v>
+      </c>
+      <c r="C173">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>38</v>
+      </c>
+      <c r="B174">
+        <v>251.95</v>
+      </c>
+      <c r="C174">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>38</v>
+      </c>
+      <c r="B175">
+        <v>252</v>
+      </c>
+      <c r="C175">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>38</v>
+      </c>
+      <c r="B176" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>39</v>
+      </c>
+      <c r="B177">
+        <v>2414.9899999999998</v>
+      </c>
+      <c r="C177">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>39</v>
+      </c>
+      <c r="B178">
+        <v>2415</v>
+      </c>
+      <c r="C178">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>39</v>
+      </c>
+      <c r="B179">
+        <v>2424</v>
+      </c>
+      <c r="C179">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>39</v>
+      </c>
+      <c r="B180">
+        <v>2425.5</v>
+      </c>
+      <c r="C180">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>39</v>
+      </c>
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>40</v>
+      </c>
+      <c r="B182">
+        <v>1144</v>
+      </c>
+      <c r="C182">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>40</v>
+      </c>
+      <c r="B183">
+        <v>1314.9</v>
+      </c>
+      <c r="C183">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>40</v>
+      </c>
+      <c r="B184" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>40</v>
+      </c>
+      <c r="B185" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>40</v>
+      </c>
+      <c r="B186" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>41</v>
+      </c>
+      <c r="B187">
+        <v>1109</v>
+      </c>
+      <c r="C187">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>41</v>
+      </c>
+      <c r="B188">
+        <v>1111</v>
+      </c>
+      <c r="C188">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>41</v>
+      </c>
+      <c r="B189">
+        <v>1114</v>
+      </c>
+      <c r="C189">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>41</v>
+      </c>
+      <c r="B190">
+        <v>1115</v>
+      </c>
+      <c r="C190">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>41</v>
+      </c>
+      <c r="B191">
+        <v>1118</v>
+      </c>
+      <c r="C191">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>42</v>
+      </c>
+      <c r="B192">
+        <v>1123.5</v>
+      </c>
+      <c r="C192">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>42</v>
+      </c>
+      <c r="B193">
+        <v>1123.5999999999999</v>
+      </c>
+      <c r="C193">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>42</v>
+      </c>
+      <c r="B194">
+        <v>1129</v>
+      </c>
+      <c r="C194">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>42</v>
+      </c>
+      <c r="B195">
+        <v>1129.9000000000001</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>42</v>
+      </c>
+      <c r="B196">
+        <v>1131</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>43</v>
+      </c>
+      <c r="B197">
+        <v>1084.8900000000001</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>43</v>
+      </c>
+      <c r="B198">
+        <v>1084.9000000000001</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>43</v>
+      </c>
+      <c r="B199">
+        <v>1085</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>43</v>
+      </c>
+      <c r="B200">
+        <v>1085.2</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>43</v>
+      </c>
+      <c r="B201">
+        <v>1086.5999999999999</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>44</v>
+      </c>
+      <c r="B202">
+        <v>1089.98</v>
+      </c>
+      <c r="C202">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>44</v>
+      </c>
+      <c r="B203">
+        <v>1094</v>
+      </c>
+      <c r="C203">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>44</v>
+      </c>
+      <c r="B204">
+        <v>1095</v>
+      </c>
+      <c r="C204">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>44</v>
+      </c>
+      <c r="B205">
+        <v>1150</v>
+      </c>
+      <c r="C205">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>44</v>
+      </c>
+      <c r="B206" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>45</v>
+      </c>
+      <c r="B207">
+        <v>1070</v>
+      </c>
+      <c r="C207">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>45</v>
+      </c>
+      <c r="B208">
+        <v>1072.8</v>
+      </c>
+      <c r="C208">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>45</v>
+      </c>
+      <c r="B209">
+        <v>1073</v>
+      </c>
+      <c r="C209">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>45</v>
+      </c>
+      <c r="B210">
+        <v>1073.9000000000001</v>
+      </c>
+      <c r="C210">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>45</v>
+      </c>
+      <c r="B211">
+        <v>1074</v>
+      </c>
+      <c r="C211">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>46</v>
+      </c>
+      <c r="B212" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>46</v>
+      </c>
+      <c r="B213" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>46</v>
+      </c>
+      <c r="B214" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>46</v>
+      </c>
+      <c r="B215" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>46</v>
+      </c>
+      <c r="B216" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>47</v>
+      </c>
+      <c r="B217">
+        <v>1150</v>
+      </c>
+      <c r="C217">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>47</v>
+      </c>
+      <c r="B218" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>47</v>
+      </c>
+      <c r="B219" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>47</v>
+      </c>
+      <c r="B220" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>47</v>
+      </c>
+      <c r="B221" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>48</v>
+      </c>
+      <c r="B222">
+        <v>251.99</v>
+      </c>
+      <c r="C222">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>48</v>
+      </c>
+      <c r="B223">
+        <v>252</v>
+      </c>
+      <c r="C223">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>48</v>
+      </c>
+      <c r="B224" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>48</v>
+      </c>
+      <c r="B225" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>48</v>
+      </c>
+      <c r="B226" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>49</v>
+      </c>
+      <c r="B227">
+        <v>1088</v>
+      </c>
+      <c r="C227">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>49</v>
+      </c>
+      <c r="B228">
+        <v>1094.4000000000001</v>
+      </c>
+      <c r="C228">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>49</v>
+      </c>
+      <c r="B229">
+        <v>1144</v>
+      </c>
+      <c r="C229">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>49</v>
+      </c>
+      <c r="B230" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>49</v>
+      </c>
+      <c r="B231" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>50</v>
+      </c>
+      <c r="B232">
+        <v>1128</v>
+      </c>
+      <c r="C232">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>50</v>
+      </c>
+      <c r="B233">
+        <v>1134</v>
+      </c>
+      <c r="C233">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>50</v>
+      </c>
+      <c r="B234">
+        <v>1135</v>
+      </c>
+      <c r="C234">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>50</v>
+      </c>
+      <c r="B235">
+        <v>1147.9000000000001</v>
+      </c>
+      <c r="C235">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>50</v>
+      </c>
+      <c r="B236">
+        <v>1147.9100000000001</v>
+      </c>
+      <c r="C236">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>51</v>
+      </c>
+      <c r="B237" t="s">
+        <v>7</v>
+      </c>
+      <c r="C237" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>51</v>
+      </c>
+      <c r="B238" t="s">
+        <v>7</v>
+      </c>
+      <c r="C238" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>51</v>
+      </c>
+      <c r="B239" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>51</v>
+      </c>
+      <c r="B240" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>51</v>
+      </c>
+      <c r="B241" t="s">
+        <v>7</v>
+      </c>
+      <c r="C241" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>52</v>
+      </c>
+      <c r="B242">
+        <v>1246.99</v>
+      </c>
+      <c r="C242">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>52</v>
+      </c>
+      <c r="B243">
+        <v>1247</v>
+      </c>
+      <c r="C243">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>52</v>
+      </c>
+      <c r="B244">
+        <v>1247.3499999999999</v>
+      </c>
+      <c r="C244">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>52</v>
+      </c>
+      <c r="B245">
+        <v>1250</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>52</v>
+      </c>
+      <c r="B246">
+        <v>1250.5</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>53</v>
+      </c>
+      <c r="B247">
+        <v>1040</v>
+      </c>
+      <c r="C247">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>53</v>
+      </c>
+      <c r="B248" t="s">
+        <v>7</v>
+      </c>
+      <c r="C248" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>53</v>
+      </c>
+      <c r="B249" t="s">
+        <v>7</v>
+      </c>
+      <c r="C249" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>53</v>
+      </c>
+      <c r="B250" t="s">
+        <v>7</v>
+      </c>
+      <c r="C250" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>53</v>
+      </c>
+      <c r="B251" t="s">
+        <v>7</v>
+      </c>
+      <c r="C251" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>54</v>
+      </c>
+      <c r="B252">
+        <v>1639.9</v>
+      </c>
+      <c r="C252">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>54</v>
+      </c>
+      <c r="B253" t="s">
+        <v>7</v>
+      </c>
+      <c r="C253" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>54</v>
+      </c>
+      <c r="B254" t="s">
+        <v>7</v>
+      </c>
+      <c r="C254" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>54</v>
+      </c>
+      <c r="B255" t="s">
+        <v>7</v>
+      </c>
+      <c r="C255" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>54</v>
+      </c>
+      <c r="B256" t="s">
+        <v>7</v>
+      </c>
+      <c r="C256" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>55</v>
+      </c>
+      <c r="B257">
+        <v>1117.95</v>
+      </c>
+      <c r="C257">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>55</v>
+      </c>
+      <c r="B258">
+        <v>1117.99</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>55</v>
+      </c>
+      <c r="B259">
+        <v>1121.9000000000001</v>
+      </c>
+      <c r="C259">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>55</v>
+      </c>
+      <c r="B260">
+        <v>1121.94</v>
+      </c>
+      <c r="C260">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>55</v>
+      </c>
+      <c r="B261">
+        <v>1121.99</v>
+      </c>
+      <c r="C261">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/bid_ask_quotes.xlsx
+++ b/bid_ask_quotes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="31">
   <si>
     <t>ISIN</t>
   </si>
@@ -57,13 +57,40 @@
     <t>NSE_EQ|INE039A07801</t>
   </si>
   <si>
+    <t>NSE_EQ|INE530L07475</t>
+  </si>
+  <si>
+    <t>no data</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE532F07DC0</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE530L07590</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE532F07EU0</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE148I08256</t>
+  </si>
+  <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>NSE_EQ|INE532F07DC0</t>
-  </si>
-  <si>
-    <t>no data</t>
+    <t>NSE_EQ|INE477L07AL3</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE614X07365</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE01I507935</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE403Q07CJ8</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE530L07483</t>
   </si>
   <si>
     <t>NSE_EQ|INE477L08147</t>
@@ -72,16 +99,16 @@
     <t>NSE_EQ|INE614X07381</t>
   </si>
   <si>
+    <t>NSE_EQ|INE148I07GK5</t>
+  </si>
+  <si>
     <t>NSE_EQ|INE614X07456</t>
   </si>
   <si>
-    <t>NSE_EQ|INE614X07365</t>
-  </si>
-  <si>
-    <t>NSE_EQ|INE01I507935</t>
-  </si>
-  <si>
-    <t>NSE_EQ|INE477L07AL3</t>
+    <t>NSE_EQ|INE804I079Y6</t>
+  </si>
+  <si>
+    <t>NSE_EQ|INE01HV07411</t>
   </si>
   <si>
     <t>NSE_EQ|INE532F07CO7</t>
@@ -447,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,280 +522,280 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
+      <c r="B2">
+        <v>1083.5</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>1083.53</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>1083.5999999999999</v>
+      </c>
+      <c r="G2">
+        <v>36</v>
+      </c>
+      <c r="H2">
+        <v>1083.71</v>
+      </c>
+      <c r="I2">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>1084.8</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>1005</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>1009</v>
+      </c>
+      <c r="E7">
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
+      <c r="B8">
+        <v>1057.8</v>
+      </c>
+      <c r="C8">
+        <v>159</v>
+      </c>
+      <c r="D8">
+        <v>1079.8</v>
+      </c>
+      <c r="E8">
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
+      <c r="B9">
+        <v>1080.3499999999999</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>1080.55</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -776,34 +803,349 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>948.5</v>
+      </c>
+      <c r="C13">
+        <v>83</v>
+      </c>
+      <c r="D13">
+        <v>950</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>970</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>979</v>
+      </c>
+      <c r="I13">
+        <v>120</v>
+      </c>
+      <c r="J13">
+        <v>980</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>1002</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>1005</v>
+      </c>
+      <c r="E14">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" t="s">
-        <v>14</v>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>1000</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>993.6</v>
+      </c>
+      <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>994.5</v>
+      </c>
+      <c r="E16">
+        <v>45</v>
+      </c>
+      <c r="F16">
+        <v>994.75</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <v>1004</v>
+      </c>
+      <c r="I16">
+        <v>25</v>
+      </c>
+      <c r="J16">
+        <v>1013</v>
+      </c>
+      <c r="K16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>941</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>941.99</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>942</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <v>942.8</v>
+      </c>
+      <c r="I17">
+        <v>360</v>
+      </c>
+      <c r="J17">
+        <v>949.99</v>
+      </c>
+      <c r="K17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/bid_ask_quotes.xlsx
+++ b/bid_ask_quotes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="31">
   <si>
     <t>ISIN</t>
   </si>
@@ -523,31 +523,31 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>1083.5</v>
+        <v>1089.8499999999999</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="D2">
-        <v>1083.53</v>
+        <v>1089.8900000000001</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
       <c r="F2">
-        <v>1083.5999999999999</v>
+        <v>1089.9000000000001</v>
       </c>
       <c r="G2">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H2">
-        <v>1083.71</v>
+        <v>1090</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="J2">
-        <v>1084.8</v>
+        <v>1093</v>
       </c>
       <c r="K2">
         <v>100</v>
@@ -698,13 +698,13 @@
         <v>17</v>
       </c>
       <c r="B7">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>641</v>
       </c>
       <c r="D7">
-        <v>1009</v>
+        <v>1014.8</v>
       </c>
       <c r="E7">
         <v>54</v>
@@ -733,16 +733,16 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>1057.8</v>
+        <v>1079.8</v>
       </c>
       <c r="C8">
-        <v>159</v>
-      </c>
-      <c r="D8">
-        <v>1079.8</v>
-      </c>
-      <c r="E8">
         <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -768,16 +768,16 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>1080.3499999999999</v>
+        <v>1200</v>
       </c>
       <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>1080.55</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
@@ -908,51 +908,51 @@
         <v>24</v>
       </c>
       <c r="B13">
-        <v>948.5</v>
+        <v>979</v>
       </c>
       <c r="C13">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="D13">
-        <v>950</v>
+        <v>979.95</v>
       </c>
       <c r="E13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="G13">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="H13">
-        <v>979</v>
+        <v>999.7</v>
       </c>
       <c r="I13">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="J13">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="K13">
-        <v>10</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B14">
-        <v>1002</v>
-      </c>
-      <c r="C14">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <v>1005</v>
-      </c>
-      <c r="E14">
-        <v>14</v>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
@@ -977,11 +977,11 @@
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15">
-        <v>1000</v>
-      </c>
-      <c r="C15">
-        <v>100</v>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
@@ -1013,34 +1013,34 @@
         <v>27</v>
       </c>
       <c r="B16">
-        <v>993.6</v>
+        <v>994.5</v>
       </c>
       <c r="C16">
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <v>1004</v>
+      </c>
+      <c r="E16">
         <v>25</v>
       </c>
-      <c r="D16">
-        <v>994.5</v>
-      </c>
-      <c r="E16">
-        <v>45</v>
-      </c>
       <c r="F16">
-        <v>994.75</v>
+        <v>1013</v>
       </c>
       <c r="G16">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="H16">
-        <v>1004</v>
+        <v>1188</v>
       </c>
       <c r="I16">
         <v>25</v>
       </c>
-      <c r="J16">
-        <v>1013</v>
-      </c>
-      <c r="K16">
-        <v>60</v>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1048,34 +1048,34 @@
         <v>28</v>
       </c>
       <c r="B17">
-        <v>941</v>
+        <v>935.9</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>1521</v>
       </c>
       <c r="D17">
-        <v>941.99</v>
+        <v>940.7</v>
       </c>
       <c r="E17">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="F17">
-        <v>942</v>
+        <v>940.8</v>
       </c>
       <c r="G17">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="H17">
-        <v>942.8</v>
+        <v>1020</v>
       </c>
       <c r="I17">
-        <v>360</v>
-      </c>
-      <c r="J17">
-        <v>949.99</v>
-      </c>
-      <c r="K17">
-        <v>100</v>
+        <v>83</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
